--- a/docs/Shedule_Work_breakdown.xlsx
+++ b/docs/Shedule_Work_breakdown.xlsx
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eric Bauer</author>
+  </authors>
+  <commentList>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eric Bauer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Create single mode valued matrix. Issue: must create PLSQL script for data compilation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -100,6 +134,24 @@
   </si>
   <si>
     <t>Create mockup -EB</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>DELAYED</t>
+  </si>
+  <si>
+    <t>Complete-EB</t>
   </si>
 </sst>
 </file>
@@ -107,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +176,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,10 +213,10 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -324,7 +389,7 @@
                   <c:v>41372</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41372</c:v>
+                  <c:v>41386</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>41372</c:v>
@@ -663,7 +728,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7</c:v>
@@ -712,11 +777,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="58956800"/>
-        <c:axId val="128438656"/>
+        <c:axId val="61313408"/>
+        <c:axId val="61314944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58956800"/>
+        <c:axId val="61313408"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -725,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128438656"/>
+        <c:crossAx val="61314944"/>
         <c:crossesAt val="41340"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128438656"/>
+        <c:axId val="61314944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41411"/>
@@ -757,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58956800"/>
+        <c:crossAx val="61313408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -780,14 +845,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -1097,11 +1162,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1176,7 @@
     <col min="3" max="3" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1189,11 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1139,8 +1207,11 @@
         <f>SUM(B2,C2)</f>
         <v>41368</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1154,8 +1225,11 @@
         <f t="shared" ref="D3:D25" si="0">SUM(B3,C3)</f>
         <v>41368</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1169,8 +1243,11 @@
         <f t="shared" si="0"/>
         <v>41370</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1184,8 +1261,11 @@
         <f t="shared" si="0"/>
         <v>41372</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1199,8 +1279,11 @@
         <f t="shared" si="0"/>
         <v>41371</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1214,8 +1297,11 @@
         <f t="shared" si="0"/>
         <v>41375</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1229,8 +1315,11 @@
         <f t="shared" si="0"/>
         <v>41372</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1244,8 +1333,11 @@
         <f t="shared" si="0"/>
         <v>41374</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1259,8 +1351,11 @@
         <f t="shared" si="0"/>
         <v>41375</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1274,8 +1369,11 @@
         <f t="shared" si="0"/>
         <v>41377</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1289,8 +1387,11 @@
         <f t="shared" si="0"/>
         <v>41379</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1304,23 +1405,29 @@
         <f t="shared" si="0"/>
         <v>41373</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>41372</v>
+        <v>41386</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>41373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41390</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1334,8 +1441,11 @@
         <f t="shared" si="0"/>
         <v>41379</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1349,8 +1459,11 @@
         <f t="shared" si="0"/>
         <v>41379</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1364,8 +1477,11 @@
         <f t="shared" si="0"/>
         <v>41380</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1379,8 +1495,11 @@
         <f t="shared" si="0"/>
         <v>41380</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +1513,11 @@
         <f t="shared" si="0"/>
         <v>41381</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1410,7 +1532,7 @@
         <v>41383</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +1547,7 @@
         <v>41383</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1562,7 @@
         <v>41390</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1455,7 +1577,7 @@
         <v>41390</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1470,7 +1592,7 @@
         <v>41397</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1485,7 +1607,7 @@
         <v>41404</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>41411</v>
       </c>
@@ -1494,6 +1616,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/docs/Shedule_Work_breakdown.xlsx
+++ b/docs/Shedule_Work_breakdown.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>DELAYED</t>
   </si>
   <si>
     <t>Complete-EB</t>
@@ -777,11 +774,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61313408"/>
-        <c:axId val="61314944"/>
+        <c:axId val="49681152"/>
+        <c:axId val="49682688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61313408"/>
+        <c:axId val="49681152"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -790,7 +787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61314944"/>
+        <c:crossAx val="49682688"/>
         <c:crossesAt val="41340"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -798,7 +795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61314944"/>
+        <c:axId val="49682688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41411"/>
@@ -822,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61313408"/>
+        <c:crossAx val="49681152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1166,7 +1163,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1421,7 @@
         <v>41390</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1478,7 +1475,7 @@
         <v>41380</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,7 +1493,7 @@
         <v>41380</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,7 +1511,7 @@
         <v>41381</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,6 +1527,9 @@
       <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>41383</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">

--- a/docs/Shedule_Work_breakdown.xlsx
+++ b/docs/Shedule_Work_breakdown.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Complete-EB</t>
+  </si>
+  <si>
+    <t>Complete-AK</t>
   </si>
 </sst>
 </file>
@@ -774,11 +777,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49681152"/>
-        <c:axId val="49682688"/>
+        <c:axId val="125388672"/>
+        <c:axId val="125390208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49681152"/>
+        <c:axId val="125388672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -787,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49682688"/>
+        <c:crossAx val="125390208"/>
         <c:crossesAt val="41340"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -795,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49682688"/>
+        <c:axId val="125390208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41411"/>
@@ -819,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49681152"/>
+        <c:crossAx val="125388672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1163,7 +1166,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,6 +1174,7 @@
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1205,7 +1209,7 @@
         <v>41368</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1223,7 +1227,7 @@
         <v>41368</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1245,7 @@
         <v>41370</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1259,7 +1263,7 @@
         <v>41372</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1277,7 +1281,7 @@
         <v>41371</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1299,7 @@
         <v>41375</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,7 +1317,7 @@
         <v>41372</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1331,7 +1335,7 @@
         <v>41374</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,7 +1443,7 @@
         <v>41379</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1457,7 +1461,7 @@
         <v>41379</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1529,7 +1533,7 @@
         <v>41383</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1546,6 +1550,9 @@
         <f t="shared" si="0"/>
         <v>41383</v>
       </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1561,6 +1568,9 @@
         <f t="shared" si="0"/>
         <v>41390</v>
       </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1576,6 +1586,9 @@
         <f t="shared" si="0"/>
         <v>41390</v>
       </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1591,6 +1604,9 @@
         <f t="shared" si="0"/>
         <v>41397</v>
       </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1605,6 +1621,9 @@
       <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>41404</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
